--- a/Estados de resultados/estadodeResultados17_1_2025.xlsx
+++ b/Estados de resultados/estadodeResultados17_1_2025.xlsx
@@ -17,7 +17,7 @@
     <t>Estado de resultados</t>
   </si>
   <si>
-    <t>Punto de venta S.A.</t>
+    <t>Mega Mix Store S.A.</t>
   </si>
   <si>
     <t>Estado de resultados del 17 de Enero del año 2025</t>
@@ -134,6 +134,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="22"/>
       </patternFill>
@@ -148,11 +154,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
@@ -218,67 +219,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -374,180 +327,180 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="n">
-        <v>29146.0</v>
+        <v>30406.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="n">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="n">
         <v>1000.0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <f>F6-F7-F8</f>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <f>F6-E7-E8</f>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4" t="n">
         <v>13300.0</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <f>E11+E12</f>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="4" t="n">
-        <v>11100.0</v>
-      </c>
-      <c r="F14" s="13"/>
+        <v>10980.0</v>
+      </c>
+      <c r="F14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="4">
         <f>E10+E13-E14</f>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
         <f>F9-F15</f>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="4" t="n">
-        <v>900.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
         <f>F16-F17</f>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="4" t="n">
         <v>140.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
         <f>F18+F19</f>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="4">
         <f>F20*0.16</f>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6">
         <f>F20-F21</f>
       </c>
     </row>
